--- a/data/case1/14/P_device_6.xlsx
+++ b/data/case1/14/P_device_6.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.011577557505472158</v>
+        <v>0.014927392184047891</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.011577559043534587</v>
+        <v>-0.014927392923491314</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.016838307110916311</v>
+        <v>0.014151785833180178</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.016838308677490421</v>
+        <v>-0.014151786588835676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.052018264746634173</v>
+        <v>-0.048182502341397329</v>
       </c>
       <c r="B3" s="0">
-        <v>0.052018263225838607</v>
+        <v>0.048182501606491318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.078036494608513224</v>
+        <v>0.075191258073497289</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.078036496047055565</v>
+        <v>-0.075191258761216823</v>
       </c>
     </row>
   </sheetData>
